--- a/data/countries.xlsx
+++ b/data/countries.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claesostlund/havanna_github/app/plugin/data/country/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40EB47C2-D3AA-CE47-8408-E6E65B54334E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D7AFCA-E345-9B4C-98CF-189D161DB6AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4060" yWindow="1580" windowWidth="28040" windowHeight="17440" xr2:uid="{EB15FF34-A71B-1F4E-96D9-2FACA8E664DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1278,9 +1278,6 @@
     <t>SE</t>
   </si>
   <si>
-    <t>Sverige</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -1618,6 +1615,9 @@
   </si>
   <si>
     <t>insert into MY_TABLE (id,name) values</t>
+  </si>
+  <si>
+    <t>Sweden</t>
   </si>
 </sst>
 </file>
@@ -1978,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAF15C6-2246-F44C-98EA-79EDC05AC96C}">
   <dimension ref="A10:C274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E275" sqref="E275"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1991,13 +1991,13 @@
   <sheetData>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
         <v>529</v>
-      </c>
-      <c r="C10" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4501,19 +4501,19 @@
         <v>416</v>
       </c>
       <c r="B219" t="s">
-        <v>417</v>
+        <v>530</v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="3"/>
-        <v>('SE','Sverige'),</v>
+        <v>('SE','Sweden'),</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>417</v>
+      </c>
+      <c r="B220" t="s">
         <v>418</v>
-      </c>
-      <c r="B220" t="s">
-        <v>419</v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="3"/>
@@ -4522,10 +4522,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>419</v>
+      </c>
+      <c r="B221" t="s">
         <v>420</v>
-      </c>
-      <c r="B221" t="s">
-        <v>421</v>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="3"/>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>421</v>
+      </c>
+      <c r="B222" t="s">
         <v>422</v>
-      </c>
-      <c r="B222" t="s">
-        <v>423</v>
       </c>
       <c r="C222" t="str">
         <f t="shared" si="3"/>
@@ -4546,10 +4546,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>423</v>
+      </c>
+      <c r="B223" t="s">
         <v>424</v>
-      </c>
-      <c r="B223" t="s">
-        <v>425</v>
       </c>
       <c r="C223" t="str">
         <f t="shared" si="3"/>
@@ -4558,10 +4558,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>425</v>
+      </c>
+      <c r="B224" t="s">
         <v>426</v>
-      </c>
-      <c r="B224" t="s">
-        <v>427</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="3"/>
@@ -4570,10 +4570,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>427</v>
+      </c>
+      <c r="B225" t="s">
         <v>428</v>
-      </c>
-      <c r="B225" t="s">
-        <v>429</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="3"/>
@@ -4582,10 +4582,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>429</v>
+      </c>
+      <c r="B226" t="s">
         <v>430</v>
-      </c>
-      <c r="B226" t="s">
-        <v>431</v>
       </c>
       <c r="C226" t="str">
         <f t="shared" si="3"/>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>431</v>
+      </c>
+      <c r="B227" t="s">
         <v>432</v>
-      </c>
-      <c r="B227" t="s">
-        <v>433</v>
       </c>
       <c r="C227" t="str">
         <f t="shared" si="3"/>
@@ -4606,10 +4606,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>433</v>
+      </c>
+      <c r="B228" t="s">
         <v>434</v>
-      </c>
-      <c r="B228" t="s">
-        <v>435</v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="3"/>
@@ -4618,10 +4618,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>435</v>
+      </c>
+      <c r="B229" t="s">
         <v>436</v>
-      </c>
-      <c r="B229" t="s">
-        <v>437</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="3"/>
@@ -4630,10 +4630,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>437</v>
+      </c>
+      <c r="B230" t="s">
         <v>438</v>
-      </c>
-      <c r="B230" t="s">
-        <v>439</v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="3"/>
@@ -4642,10 +4642,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>439</v>
+      </c>
+      <c r="B231" t="s">
         <v>440</v>
-      </c>
-      <c r="B231" t="s">
-        <v>441</v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="3"/>
@@ -4654,10 +4654,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>441</v>
+      </c>
+      <c r="B232" t="s">
         <v>442</v>
-      </c>
-      <c r="B232" t="s">
-        <v>443</v>
       </c>
       <c r="C232" t="str">
         <f t="shared" si="3"/>
@@ -4666,10 +4666,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
+        <v>443</v>
+      </c>
+      <c r="B233" t="s">
         <v>444</v>
-      </c>
-      <c r="B233" t="s">
-        <v>445</v>
       </c>
       <c r="C233" t="str">
         <f t="shared" si="3"/>
@@ -4678,10 +4678,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>445</v>
+      </c>
+      <c r="B234" t="s">
         <v>446</v>
-      </c>
-      <c r="B234" t="s">
-        <v>447</v>
       </c>
       <c r="C234" t="str">
         <f t="shared" si="3"/>
@@ -4690,10 +4690,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>447</v>
+      </c>
+      <c r="B235" t="s">
         <v>448</v>
-      </c>
-      <c r="B235" t="s">
-        <v>449</v>
       </c>
       <c r="C235" t="str">
         <f t="shared" si="3"/>
@@ -4702,10 +4702,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
+        <v>449</v>
+      </c>
+      <c r="B236" t="s">
         <v>450</v>
-      </c>
-      <c r="B236" t="s">
-        <v>451</v>
       </c>
       <c r="C236" t="str">
         <f t="shared" si="3"/>
@@ -4714,10 +4714,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>451</v>
+      </c>
+      <c r="B237" t="s">
         <v>452</v>
-      </c>
-      <c r="B237" t="s">
-        <v>453</v>
       </c>
       <c r="C237" t="str">
         <f t="shared" si="3"/>
@@ -4726,10 +4726,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>453</v>
+      </c>
+      <c r="B238" t="s">
         <v>454</v>
-      </c>
-      <c r="B238" t="s">
-        <v>455</v>
       </c>
       <c r="C238" t="str">
         <f t="shared" si="3"/>
@@ -4738,10 +4738,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>455</v>
+      </c>
+      <c r="B239" t="s">
         <v>456</v>
-      </c>
-      <c r="B239" t="s">
-        <v>457</v>
       </c>
       <c r="C239" t="str">
         <f t="shared" si="3"/>
@@ -4750,10 +4750,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>457</v>
+      </c>
+      <c r="B240" t="s">
         <v>458</v>
-      </c>
-      <c r="B240" t="s">
-        <v>459</v>
       </c>
       <c r="C240" t="str">
         <f t="shared" si="3"/>
@@ -4762,10 +4762,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>459</v>
+      </c>
+      <c r="B241" t="s">
         <v>460</v>
-      </c>
-      <c r="B241" t="s">
-        <v>461</v>
       </c>
       <c r="C241" t="str">
         <f t="shared" si="3"/>
@@ -4774,10 +4774,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
+        <v>461</v>
+      </c>
+      <c r="B242" t="s">
         <v>462</v>
-      </c>
-      <c r="B242" t="s">
-        <v>463</v>
       </c>
       <c r="C242" t="str">
         <f t="shared" si="3"/>
@@ -4786,10 +4786,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>463</v>
+      </c>
+      <c r="B243" t="s">
         <v>464</v>
-      </c>
-      <c r="B243" t="s">
-        <v>465</v>
       </c>
       <c r="C243" t="str">
         <f t="shared" si="3"/>
@@ -4798,10 +4798,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>465</v>
+      </c>
+      <c r="B244" t="s">
         <v>466</v>
-      </c>
-      <c r="B244" t="s">
-        <v>467</v>
       </c>
       <c r="C244" t="str">
         <f t="shared" si="3"/>
@@ -4810,10 +4810,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>467</v>
+      </c>
+      <c r="B245" t="s">
         <v>468</v>
-      </c>
-      <c r="B245" t="s">
-        <v>469</v>
       </c>
       <c r="C245" t="str">
         <f t="shared" si="3"/>
@@ -4822,10 +4822,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
+        <v>469</v>
+      </c>
+      <c r="B246" t="s">
         <v>470</v>
-      </c>
-      <c r="B246" t="s">
-        <v>471</v>
       </c>
       <c r="C246" t="str">
         <f t="shared" si="3"/>
@@ -4834,10 +4834,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>471</v>
+      </c>
+      <c r="B247" t="s">
         <v>472</v>
-      </c>
-      <c r="B247" t="s">
-        <v>473</v>
       </c>
       <c r="C247" t="str">
         <f t="shared" si="3"/>
@@ -4846,10 +4846,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>473</v>
+      </c>
+      <c r="B248" t="s">
         <v>474</v>
-      </c>
-      <c r="B248" t="s">
-        <v>475</v>
       </c>
       <c r="C248" t="str">
         <f t="shared" si="3"/>
@@ -4858,10 +4858,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
+        <v>475</v>
+      </c>
+      <c r="B249" t="s">
         <v>476</v>
-      </c>
-      <c r="B249" t="s">
-        <v>477</v>
       </c>
       <c r="C249" t="str">
         <f t="shared" si="3"/>
@@ -4870,10 +4870,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
+        <v>477</v>
+      </c>
+      <c r="B250" t="s">
         <v>478</v>
-      </c>
-      <c r="B250" t="s">
-        <v>479</v>
       </c>
       <c r="C250" t="str">
         <f t="shared" si="3"/>
@@ -4882,10 +4882,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>479</v>
+      </c>
+      <c r="B251" t="s">
         <v>480</v>
-      </c>
-      <c r="B251" t="s">
-        <v>481</v>
       </c>
       <c r="C251" t="str">
         <f t="shared" si="3"/>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>481</v>
+      </c>
+      <c r="B252" t="s">
         <v>482</v>
-      </c>
-      <c r="B252" t="s">
-        <v>483</v>
       </c>
       <c r="C252" t="str">
         <f t="shared" si="3"/>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>483</v>
+      </c>
+      <c r="B253" t="s">
         <v>484</v>
-      </c>
-      <c r="B253" t="s">
-        <v>485</v>
       </c>
       <c r="C253" t="str">
         <f t="shared" si="3"/>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
+        <v>485</v>
+      </c>
+      <c r="B254" t="s">
         <v>486</v>
-      </c>
-      <c r="B254" t="s">
-        <v>487</v>
       </c>
       <c r="C254" t="str">
         <f t="shared" si="3"/>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>487</v>
+      </c>
+      <c r="B255" t="s">
         <v>488</v>
-      </c>
-      <c r="B255" t="s">
-        <v>489</v>
       </c>
       <c r="C255" t="str">
         <f t="shared" si="3"/>
@@ -4942,10 +4942,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>489</v>
+      </c>
+      <c r="B256" t="s">
         <v>490</v>
-      </c>
-      <c r="B256" t="s">
-        <v>491</v>
       </c>
       <c r="C256" t="str">
         <f t="shared" si="3"/>
@@ -4954,10 +4954,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>491</v>
+      </c>
+      <c r="B257" t="s">
         <v>492</v>
-      </c>
-      <c r="B257" t="s">
-        <v>493</v>
       </c>
       <c r="C257" t="str">
         <f t="shared" si="3"/>
@@ -4966,10 +4966,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>493</v>
+      </c>
+      <c r="B258" t="s">
         <v>494</v>
-      </c>
-      <c r="B258" t="s">
-        <v>495</v>
       </c>
       <c r="C258" t="str">
         <f t="shared" si="3"/>
@@ -4978,10 +4978,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>495</v>
+      </c>
+      <c r="B259" t="s">
         <v>496</v>
-      </c>
-      <c r="B259" t="s">
-        <v>497</v>
       </c>
       <c r="C259" t="str">
         <f t="shared" si="3"/>
@@ -4990,10 +4990,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>497</v>
+      </c>
+      <c r="B260" t="s">
         <v>498</v>
-      </c>
-      <c r="B260" t="s">
-        <v>499</v>
       </c>
       <c r="C260" t="str">
         <f t="shared" si="3"/>
@@ -5002,10 +5002,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>499</v>
+      </c>
+      <c r="B261" t="s">
         <v>500</v>
-      </c>
-      <c r="B261" t="s">
-        <v>501</v>
       </c>
       <c r="C261" t="str">
         <f t="shared" si="3"/>
@@ -5014,10 +5014,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>501</v>
+      </c>
+      <c r="B262" t="s">
         <v>502</v>
-      </c>
-      <c r="B262" t="s">
-        <v>503</v>
       </c>
       <c r="C262" t="str">
         <f t="shared" si="3"/>
@@ -5026,10 +5026,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>503</v>
+      </c>
+      <c r="B263" t="s">
         <v>504</v>
-      </c>
-      <c r="B263" t="s">
-        <v>505</v>
       </c>
       <c r="C263" t="str">
         <f t="shared" si="3"/>
@@ -5038,10 +5038,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>505</v>
+      </c>
+      <c r="B264" t="s">
         <v>506</v>
-      </c>
-      <c r="B264" t="s">
-        <v>507</v>
       </c>
       <c r="C264" t="str">
         <f t="shared" si="3"/>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>507</v>
+      </c>
+      <c r="B265" t="s">
         <v>508</v>
-      </c>
-      <c r="B265" t="s">
-        <v>509</v>
       </c>
       <c r="C265" t="str">
         <f t="shared" si="3"/>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>509</v>
+      </c>
+      <c r="B266" t="s">
         <v>510</v>
-      </c>
-      <c r="B266" t="s">
-        <v>511</v>
       </c>
       <c r="C266" t="str">
         <f t="shared" si="3"/>
@@ -5074,10 +5074,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
+        <v>511</v>
+      </c>
+      <c r="B267" t="s">
         <v>512</v>
-      </c>
-      <c r="B267" t="s">
-        <v>513</v>
       </c>
       <c r="C267" t="str">
         <f t="shared" si="3"/>
@@ -5086,10 +5086,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
+        <v>513</v>
+      </c>
+      <c r="B268" t="s">
         <v>514</v>
-      </c>
-      <c r="B268" t="s">
-        <v>515</v>
       </c>
       <c r="C268" t="str">
         <f t="shared" ref="C268:C274" si="4">"('"&amp;A268&amp;"','"&amp;B268&amp;"'),"</f>
@@ -5098,10 +5098,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
+        <v>515</v>
+      </c>
+      <c r="B269" t="s">
         <v>516</v>
-      </c>
-      <c r="B269" t="s">
-        <v>517</v>
       </c>
       <c r="C269" t="str">
         <f t="shared" si="4"/>
@@ -5110,10 +5110,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
+        <v>517</v>
+      </c>
+      <c r="B270" t="s">
         <v>518</v>
-      </c>
-      <c r="B270" t="s">
-        <v>519</v>
       </c>
       <c r="C270" t="str">
         <f t="shared" si="4"/>
@@ -5122,10 +5122,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
+        <v>519</v>
+      </c>
+      <c r="B271" t="s">
         <v>520</v>
-      </c>
-      <c r="B271" t="s">
-        <v>521</v>
       </c>
       <c r="C271" t="str">
         <f t="shared" si="4"/>
@@ -5134,10 +5134,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
+        <v>521</v>
+      </c>
+      <c r="B272" t="s">
         <v>522</v>
-      </c>
-      <c r="B272" t="s">
-        <v>523</v>
       </c>
       <c r="C272" t="str">
         <f t="shared" si="4"/>
@@ -5146,10 +5146,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
+        <v>523</v>
+      </c>
+      <c r="B273" t="s">
         <v>524</v>
-      </c>
-      <c r="B273" t="s">
-        <v>525</v>
       </c>
       <c r="C273" t="str">
         <f t="shared" si="4"/>
@@ -5158,10 +5158,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
+        <v>525</v>
+      </c>
+      <c r="B274" t="s">
         <v>526</v>
-      </c>
-      <c r="B274" t="s">
-        <v>527</v>
       </c>
       <c r="C274" t="str">
         <f t="shared" si="4"/>
